--- a/plover_phrasing.xlsx
+++ b/plover_phrasing.xlsx
@@ -163,16 +163,6 @@
       <t xml:space="preserve"> Replace vowel in disambiguator with O*U
 disambiguators
 KWR: KPWR
-TKWR: STKWR
-TWR: STWR
-SKWHR: SKPWHR
-KWHR: KPWHR
-TKWHR: STKWHR
-TWH: STWH
-KPR: SKPR
-KWH: SKWH
-KPH: STKPH
-TPWH: STPWH
 EU: AO*
 U: A*U
 T: TW
@@ -6491,7 +6481,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -6604,10 +6594,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -6699,8 +6685,8 @@
   </sheetPr>
   <dimension ref="A1:BP82"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="35" zoomScaleNormal="35" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BR86" activeCellId="0" sqref="BR86"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AZ1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="BM83" activeCellId="0" sqref="BM83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16817,7 +16803,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -16832,7 +16818,7 @@
   </sheetPr>
   <dimension ref="A1:R67"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="35" zoomScaleNormal="35" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
@@ -19473,7 +19459,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -19488,7 +19474,7 @@
   </sheetPr>
   <dimension ref="A1:R69"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="35" zoomScaleNormal="35" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B45" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
@@ -22441,7 +22427,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -22456,7 +22442,7 @@
   </sheetPr>
   <dimension ref="A1:R69"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="35" zoomScaleNormal="35" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B44" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
@@ -23218,7 +23204,6 @@
       <c r="N16" s="16"/>
       <c r="O16" s="16"/>
       <c r="P16" s="16"/>
-      <c r="R16" s="28"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="7" t="s">
@@ -25316,7 +25301,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -25331,7 +25316,7 @@
   </sheetPr>
   <dimension ref="A1:R69"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="35" zoomScaleNormal="35" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
@@ -28188,7 +28173,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -28203,10 +28188,10 @@
   </sheetPr>
   <dimension ref="A1:U69"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="35" zoomScaleNormal="35" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
       <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
@@ -30196,7 +30181,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -30211,7 +30196,7 @@
   </sheetPr>
   <dimension ref="A1:R69"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="35" zoomScaleNormal="35" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
@@ -30424,7 +30409,7 @@
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
-      <c r="R4" s="29" t="s">
+      <c r="R4" s="28" t="s">
         <v>1270</v>
       </c>
     </row>
@@ -32622,7 +32607,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -32637,7 +32622,7 @@
   </sheetPr>
   <dimension ref="A1:R69"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="35" zoomScaleNormal="35" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
@@ -32848,7 +32833,7 @@
       <c r="L4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="R4" s="29" t="s">
+      <c r="R4" s="28" t="s">
         <v>1272</v>
       </c>
     </row>
@@ -34964,7 +34949,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -34979,7 +34964,7 @@
   </sheetPr>
   <dimension ref="A1:R69"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="35" zoomScaleNormal="35" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
@@ -35187,7 +35172,7 @@
       <c r="L4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="R4" s="29" t="s">
+      <c r="R4" s="28" t="s">
         <v>1274</v>
       </c>
     </row>
@@ -37582,7 +37567,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -37597,7 +37582,7 @@
   </sheetPr>
   <dimension ref="A1:R69"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="35" zoomScaleNormal="35" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
@@ -38416,7 +38401,7 @@
       <c r="A21" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B21" s="30" t="s">
+      <c r="B21" s="29" t="s">
         <v>1287</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -38460,7 +38445,7 @@
       <c r="A22" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B22" s="30" t="s">
+      <c r="B22" s="29" t="s">
         <v>1287</v>
       </c>
       <c r="C22" s="2" t="s">
@@ -39296,7 +39281,7 @@
       <c r="A48" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="B48" s="31" t="s">
+      <c r="B48" s="30" t="s">
         <v>1287</v>
       </c>
       <c r="C48" s="5" t="s">
@@ -39686,7 +39671,7 @@
       <c r="E60" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G60" s="30" t="s">
+      <c r="G60" s="29" t="s">
         <v>1287</v>
       </c>
       <c r="H60" s="6" t="s">
@@ -39945,7 +39930,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
